--- a/LibraryWebApplication/6 stage.xlsx
+++ b/LibraryWebApplication/6 stage.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Headphone" sheetId="3" r:id="rId1"/>
-    <sheet name="Projector" sheetId="5" r:id="rId2"/>
-    <sheet name="Printer" sheetId="4" r:id="rId3"/>
+    <sheet name="Headphones" sheetId="6" r:id="rId1"/>
+    <sheet name="Printer" sheetId="4" r:id="rId2"/>
+    <sheet name="Projector" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Grey</t>
   </si>
   <si>
-    <t>Samsung</t>
-  </si>
-  <si>
     <t>Canon</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
   </si>
   <si>
     <t>Canon SAAS10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -457,17 +451,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -489,10 +483,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>340</v>
@@ -500,13 +491,16 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>300</v>
@@ -516,11 +510,6 @@
       </c>
       <c r="E3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +522,76 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>340</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>300</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +618,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -577,79 +635,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>300</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>340</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>300</v>
